--- a/Project/features.xlsx
+++ b/Project/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saschafrey/Documents/EPFL/MA2/Data Science/DSIP/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06FE1354-3488-4944-82B6-1E2AD259D1A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1685D2-9F16-3D4B-88D4-C17A6EAC7C30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="5220" windowWidth="27240" windowHeight="15280" xr2:uid="{B9D19807-5D2D-5A43-B583-DAC5A3619D42}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Employee Name</t>
   </si>
@@ -215,6 +215,30 @@
   <si>
     <t>The employee's current performance. The possible scores are: 'Fully Meets', 'N/A- too early to review', '90-day meets', 'Exceptional',
  'Needs Improvement', 'Exceeds', 'PIP'.</t>
+  </si>
+  <si>
+    <t>Abutments/Hour Wk 1</t>
+  </si>
+  <si>
+    <t>Abutments/Hour Wk 2</t>
+  </si>
+  <si>
+    <t>Daily Error Rate</t>
+  </si>
+  <si>
+    <t>90-day Complaints</t>
+  </si>
+  <si>
+    <t>The number of abutments produced by the employee in a sample week.</t>
+  </si>
+  <si>
+    <t>The number of abutments produced by the employee in a different  sample week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average number of errors made by an employee per day </t>
+  </si>
+  <si>
+    <t>The number of complaints lodged against the employee in the past 90 days.</t>
   </si>
 </sst>
 </file>
@@ -280,12 +304,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F59E8B1-8EE6-FF4E-8F1C-566C2297655A}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,6 +885,61 @@
         <v>59</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
